--- a/Documentation/Defect Tracking Report.xlsx
+++ b/Documentation/Defect Tracking Report.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
-  <si>
-    <t>Bikerr Defect Tracking Report 1.2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+  <si>
+    <t>Bikerr Defect Tracking Report 1.3</t>
   </si>
   <si>
     <t>Defect Number</t>
@@ -128,13 +128,67 @@
   </si>
   <si>
     <t>client/views/components/Help.jsx:100</t>
+  </si>
+  <si>
+    <t>whole application</t>
+  </si>
+  <si>
+    <t>Functional Error</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Upon token expiration, user is not logged out</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Search bar does not return results</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production - Inventory </t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Search bar always returns Seat Rod, no matter search parameters</t>
+  </si>
+  <si>
+    <t>Admin Panel</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Cannot change a user's location when the option is selected</t>
+  </si>
+  <si>
+    <t>Error using the create saddle button -- no end time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -142,13 +196,12 @@
     </font>
     <font>
       <sz val="24.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -222,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,6 +298,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -769,145 +828,265 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="B16" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="B17" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="B18" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20">
-      <c r="B20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21">
-      <c r="B21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22">
-      <c r="B22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23">
-      <c r="B23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24">
-      <c r="B24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25">
-      <c r="B25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26">
-      <c r="B26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27">
-      <c r="B27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="J27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28">
-      <c r="B28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29">
-      <c r="B29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30">
-      <c r="B30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="J30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31">
-      <c r="B31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="J31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32">
-      <c r="B32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="J32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33">
-      <c r="B33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="J33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34">
-      <c r="B34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="J34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35">
-      <c r="B35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="J35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36">
-      <c r="B36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="J36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37">
-      <c r="B37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="J37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38">
-      <c r="B38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="J38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39">
-      <c r="B39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="J39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40">
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
     </row>
   </sheetData>
   <dataValidations>
